--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Филиал</t>
   </si>
@@ -29,36 +29,6 @@
   </si>
   <si>
     <t>Описание ремонта</t>
-  </si>
-  <si>
-    <t>Саратов Запад</t>
-  </si>
-  <si>
-    <t>30.12.2025</t>
-  </si>
-  <si>
-    <t>SMT-в00007341036</t>
-  </si>
-  <si>
-    <t>Инженерный отдел Саратов</t>
-  </si>
-  <si>
-    <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
-провести техническое обслуживание ИБП с внешними АКБ.
-Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
-Сроки по выполнению задачи:  30 декабря 2025
-Используем "Договор возмездного оказания услуг (разовый)".
-Важно! При заполнении Приложения №2 к договору (Техническое задание):
-- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
-Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
-По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
-- скан-копии Протоколов ТО ИБП.
-В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
-Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
-Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
-Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
-Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
-При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
   </si>
 </sst>
 </file>
@@ -416,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,23 +409,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Филиал</t>
   </si>
@@ -29,6 +29,36 @@
   </si>
   <si>
     <t>Описание ремонта</t>
+  </si>
+  <si>
+    <t>Саратов Запад</t>
+  </si>
+  <si>
+    <t>30.12.2025</t>
+  </si>
+  <si>
+    <t>SMT-в00007341036</t>
+  </si>
+  <si>
+    <t>Инженерный отдел Саратов</t>
+  </si>
+  <si>
+    <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
+провести техническое обслуживание ИБП с внешними АКБ.
+Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
+Сроки по выполнению задачи:  30 декабря 2025
+Используем "Договор возмездного оказания услуг (разовый)".
+Важно! При заполнении Приложения №2 к договору (Техническое задание):
+- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
+Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
+По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
+- скан-копии Протоколов ТО ИБП.
+В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
+Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
+Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
+Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
+Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
+При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
   </si>
 </sst>
 </file>
@@ -386,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +439,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -34,7 +34,7 @@
     <t>Саратов Запад</t>
   </si>
   <si>
-    <t>30.12.2025</t>
+    <t>2025-12-30 00:00:00</t>
   </si>
   <si>
     <t>SMT-в00007341036</t>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -1,90 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Филиал</t>
-  </si>
-  <si>
-    <t>для исполнителя</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Описание ремонта</t>
-  </si>
-  <si>
-    <t>Саратов Запад</t>
-  </si>
-  <si>
-    <t>2025-12-30 00:00:00</t>
-  </si>
-  <si>
-    <t>SMT-в00007341036</t>
-  </si>
-  <si>
-    <t>Инженерный отдел Саратов</t>
-  </si>
-  <si>
-    <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
-провести техническое обслуживание ИБП с внешними АКБ.
-Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
-Сроки по выполнению задачи:  30 декабря 2025
-Используем "Договор возмездного оказания услуг (разовый)".
-Важно! При заполнении Приложения №2 к договору (Техническое задание):
-- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
-Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
-По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
-- скан-копии Протоколов ТО ИБП.
-В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
-Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
-Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
-Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
-Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
-При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="dd.mm.yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,35 +50,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,48 +425,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Филиал</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>для исполнителя</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Подразделение</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Описание ремонта</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Саратов Запад</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SMT-в00007341036</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Инженерный отдел Саратов</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
+провести техническое обслуживание ИБП с внешними АКБ.
+Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
+Сроки по выполнению задачи:  30 декабря 2025
+Используем "Договор возмездного оказания услуг (разовый)".
+Важно! При заполнении Приложения №2 к договору (Техническое задание):
+- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
+Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
+По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
+- скан-копии Протоколов ТО ИБП.
+В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
+Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
+Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
+Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
+Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
+При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -16,11 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="dd.mm.yyyy hh:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,46 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Саратов Запад</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>46021</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SMT-в00007341036</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Инженерный отдел Саратов</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
-провести техническое обслуживание ИБП с внешними АКБ.
-Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
-Сроки по выполнению задачи:  30 декабря 2025
-Используем "Договор возмездного оказания услуг (разовый)".
-Важно! При заполнении Приложения №2 к договору (Техническое задание):
-- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
-Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
-По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
-- скан-копии Протоколов ТО ИБП.
-В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
-Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
-Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
-Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
-Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
-При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -16,7 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="dd.mm.yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +465,46 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Саратов Запад</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SMT-в00007341036</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Инженерный отдел Саратов</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
+провести техническое обслуживание ИБП с внешними АКБ.
+Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
+Сроки по выполнению задачи:  30 декабря 2025
+Используем "Договор возмездного оказания услуг (разовый)".
+Важно! При заполнении Приложения №2 к договору (Техническое задание):
+- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
+Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
+По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
+- скан-копии Протоколов ТО ИБП.
+В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
+Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
+Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
+Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
+Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
+При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,23 +468,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Владикавказ</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SMT-в00008250955</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Инженерный отдел Владикавказ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Подготовка ХО к зимнему сезону Добрый день
+В рамках подготовки холодильного оборудования к бесперебойной работе в зимнее время филиалам и РЦ требуется выполнить ряд организационных мероприятий:
+По объектам формата БФ и РЦ:
+1.  Выполнить проверку наличия уровня фреона в нижнем смотровом окне каждого ресивера, обратить внимание КА Аутсорсера на необходимость дозаправки, если уровня нет; 
+2.  ВАЖНО! Выполнить ремонт или замену всех неисправных компрессоров централей во избежание приостановки функционирования системы холодоснабжения:
+•   Памятка по организации ремонта компрессоров – https://drive.magnit.ru/s/w7ZtBy4RXH2Jyi4 (для открытия вложенных документов файл необходимо скачать);
+•   Данные по неисправным компрессорам и плановый срок ремонта необходимо внести в файл – https://drive.magnit.ru/s/se5jA3eYG5ks3Ag 
+3.  При температуре наружного воздуха ниже 10 °С нужно проверить настройку системы ЗР согласно инструкции во вложении. Если температура наружного воздуха выше 10 °С, то в отчете по выполнению задачи необходимо это указать, обозначив ориентировочную дату выполнения проверки настройки.
+•   Чтобы настройка системы ЗР не пересекалась с настройкой минимального значения температуры конденсации во избежание цикления обратного клапана на сливе в ресивер во время работы установки, необходимо обратить внимание на нижний предел уставки температуры конденсации в контроллере и откорректировать настройку ЗР;
+•   Оснастить конденсаторы крепежом для возможности закрытия части теплообменной поверхности щитами или армированной пленкой. При снижении температуры наружного воздуха ниже -15 °С необходимо закрыть 1/3 поверхности конденсатора;
+•   Оснастить объекты пленкой, щитами, теплоизолирующими материалами для возможности оперативного закрытия поверхности конденсатора, чтобы не заниматься этим во время морозов.
+По объектам формата ММ:
+1.  Подготовить картон, либо щиты для возможности закрытия конденсаторов;
+2.  Проверить наличие на агрегатах регулируемых РД;
+3.  Проверить работоспособность ТЭНов картера, наличие масла в картере.
+При значительных морозах - ниже -25°С - даже система ЗР не сможет запустить централь, так как понадобится значительное количество фреона для затапливания теплообменной поверхности. Чтобы не тратить фреон, нужно обеспечить защиту конденсатора от влияния наружного воздуха, вплоть до применения теплоизоляции. Обеспечить наличие теплоизоляции заранее.
+Вопросы можно задавать по адресу: Сектор холодильных систем &lt;sec_holod_sys@magnit.ru&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Саратов Запад</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="2" t="n">
         <v>46021</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>SMT-в00007341036</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Инженерный отдел Саратов</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
 провести техническое обслуживание ИБП с внешними АКБ.

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -16,11 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="dd.mm.yyyy hh:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,87 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Владикавказ</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>46017</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SMT-в00008250955</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Инженерный отдел Владикавказ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Подготовка ХО к зимнему сезону Добрый день
-В рамках подготовки холодильного оборудования к бесперебойной работе в зимнее время филиалам и РЦ требуется выполнить ряд организационных мероприятий:
-По объектам формата БФ и РЦ:
-1.  Выполнить проверку наличия уровня фреона в нижнем смотровом окне каждого ресивера, обратить внимание КА Аутсорсера на необходимость дозаправки, если уровня нет; 
-2.  ВАЖНО! Выполнить ремонт или замену всех неисправных компрессоров централей во избежание приостановки функционирования системы холодоснабжения:
-•   Памятка по организации ремонта компрессоров – https://drive.magnit.ru/s/w7ZtBy4RXH2Jyi4 (для открытия вложенных документов файл необходимо скачать);
-•   Данные по неисправным компрессорам и плановый срок ремонта необходимо внести в файл – https://drive.magnit.ru/s/se5jA3eYG5ks3Ag 
-3.  При температуре наружного воздуха ниже 10 °С нужно проверить настройку системы ЗР согласно инструкции во вложении. Если температура наружного воздуха выше 10 °С, то в отчете по выполнению задачи необходимо это указать, обозначив ориентировочную дату выполнения проверки настройки.
-•   Чтобы настройка системы ЗР не пересекалась с настройкой минимального значения температуры конденсации во избежание цикления обратного клапана на сливе в ресивер во время работы установки, необходимо обратить внимание на нижний предел уставки температуры конденсации в контроллере и откорректировать настройку ЗР;
-•   Оснастить конденсаторы крепежом для возможности закрытия части теплообменной поверхности щитами или армированной пленкой. При снижении температуры наружного воздуха ниже -15 °С необходимо закрыть 1/3 поверхности конденсатора;
-•   Оснастить объекты пленкой, щитами, теплоизолирующими материалами для возможности оперативного закрытия поверхности конденсатора, чтобы не заниматься этим во время морозов.
-По объектам формата ММ:
-1.  Подготовить картон, либо щиты для возможности закрытия конденсаторов;
-2.  Проверить наличие на агрегатах регулируемых РД;
-3.  Проверить работоспособность ТЭНов картера, наличие масла в картере.
-При значительных морозах - ниже -25°С - даже система ЗР не сможет запустить централь, так как понадобится значительное количество фреона для затапливания теплообменной поверхности. Чтобы не тратить фреон, нужно обеспечить защиту конденсатора от влияния наружного воздуха, вплоть до применения теплоизоляции. Обеспечить наличие теплоизоляции заранее.
-Вопросы можно задавать по адресу: Сектор холодильных систем &lt;sec_holod_sys@magnit.ru&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Саратов Запад</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>46021</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SMT-в00007341036</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Инженерный отдел Саратов</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Техническое обслуживание ИБП с внешними АКБ 2025г  Необходимо заключить договор с КА на проведение технического обслуживания ИБП с внешними АКБ установленных на Малых форматах (подключены кассы и освещение) и
-провести техническое обслуживание ИБП с внешними АКБ.
-Периодичность технического обслуживания ИБП 1 раз в 12 месяцев.
-Сроки по выполнению задачи:  30 декабря 2025
-Используем "Договор возмездного оказания услуг (разовый)".
-Важно! При заполнении Приложения №2 к договору (Техническое задание):
-- в пункте №6 (Оформление результатов), добавить документ "Протокол ТО ИБП".
-Протоколы ТО ИБП должны хранитьcя на филиалах и предоставляться по запросу.
-По факту проведения ТО, закрыть заявку со статусом "Решен" и приложить:
-- скан-копии Протоколов ТО ИБП.
-В случае не предоставления скан-копий Протоколов ТО ИБП задача будет возвращена на доработку!!!
-Максимальная допустимая стоимость за услугу определена в тарификаторе АО "Тандер" (во вложении к задаче).
-Перечень КА, участвующих в торгах на Б2Б, с контактными данными указан на вкладке "Контактные данные участников" файл 4.Тарификатор ТО ИБП. 
-Заключать договор можно с любым КА, имеющим квалифицированный персонал (в том числе КА КТО) и стоимостью услуг в рамках действующего тарификатора.
-Оплата услуг производится из бюджета OPEX.  Статья: Ремонты текущие                      
-При возникновении вопросов обращаться в адрес Ильин Александр Дмитриевич &lt;ilin_ad@magnit.ru&gt;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -16,7 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="dd.mm.yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +465,31 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Пятигорск</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46056.45303240741</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SMT-в00008537338</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Администрация Пятигорск</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>монтаж сплит системы в офисе.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,23 +468,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Самара Запад</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SMT-в00008389167</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Инженерный отдел Самара Запад</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Возврат демонтированного оборудования АИИС КУЭ на склад эксплуатации. Добрый день.
+Коллеги, в связи с заменой оборудования АИИС КУЭ на торговых объектах вашего филиала, необходимо физически вернуть демонтированное оборудование на склад эксплуатации.
+Перечень демонтированного оборудования на 47-51 неделях указан во вложении.
+Фактом выполнения задачи является вложение в ТОиР фото демонтированного оборудования (на фото должно быть хорошо видно № ПУ, IMEI модема либо MAC-адрес преобразователя).
+В случаях изменения модели оборудования при замене дополнительно необходимо приложить соответствующие накладные на перемещение. Остатки АИИС на объектах с демонтируемым оборудованием, а также на складах эксплуатации во вложении.
+Закрытие задачи без вложения фото и накладной (в случае изменения модели оборудования при замене) запрещено. В противном случае, задача будет возвращена в работу с просроком.
+По всем имеющимся вопросам обращаться к Слидзен Максим Юрьевич slidzen_my@magnit.ru тел. 8 (909) 445-31-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Пятигорск</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="2" t="n">
         <v>46056.45303240741</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>SMT-в00008537338</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Администрация Пятигорск</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>монтаж сплит системы в офисе.</t>
         </is>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,54 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Самара Запад</t>
+          <t>Пятигорск</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46045</v>
+        <v>46056.45303240741</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SMT-в00008389167</t>
+          <t>SMT-в00008537338</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Инженерный отдел Самара Запад</t>
+          <t>Администрация Пятигорск</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Возврат демонтированного оборудования АИИС КУЭ на склад эксплуатации. Добрый день.
-Коллеги, в связи с заменой оборудования АИИС КУЭ на торговых объектах вашего филиала, необходимо физически вернуть демонтированное оборудование на склад эксплуатации.
-Перечень демонтированного оборудования на 47-51 неделях указан во вложении.
-Фактом выполнения задачи является вложение в ТОиР фото демонтированного оборудования (на фото должно быть хорошо видно № ПУ, IMEI модема либо MAC-адрес преобразователя).
-В случаях изменения модели оборудования при замене дополнительно необходимо приложить соответствующие накладные на перемещение. Остатки АИИС на объектах с демонтируемым оборудованием, а также на складах эксплуатации во вложении.
-Закрытие задачи без вложения фото и накладной (в случае изменения модели оборудования при замене) запрещено. В противном случае, задача будет возвращена в работу с просроком.
-По всем имеющимся вопросам обращаться к Слидзен Максим Юрьевич slidzen_my@magnit.ru тел. 8 (909) 445-31-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Пятигорск</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>46056.45303240741</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SMT-в00008537338</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Администрация Пятигорск</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>монтаж сплит системы в офисе.</t>
         </is>

--- a/Заявки_без_координат.xlsx
+++ b/Заявки_без_координат.xlsx
@@ -16,11 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="dd.mm.yyyy hh:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,31 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Пятигорск</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>46056.45303240741</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SMT-в00008537338</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Администрация Пятигорск</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>монтаж сплит системы в офисе.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
